--- a/st-parranderos-jdo-est/doc/Iteracion 1/Modelo base de datos.xlsx
+++ b/st-parranderos-jdo-est/doc/Iteracion 1/Modelo base de datos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0744B55B-F075-467D-901D-49C08B0E5089}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BB4B31-4D78-4909-8BB7-EA8898AD4D46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,18 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179020"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>TABLA SUCURSAL</t>
   </si>
@@ -68,10 +75,7 @@
     <t>TABLA SUPERMERCADO</t>
   </si>
   <si>
-    <t>TABLA BODEGA</t>
-  </si>
-  <si>
-    <t>TABLA ESTANTE</t>
+    <t>TABLA ALMACENAMIENTO</t>
   </si>
   <si>
     <t>CapacidadVolumen</t>
@@ -89,9 +93,15 @@
     <t>Existencias</t>
   </si>
   <si>
+    <t>CapacidadProductos</t>
+  </si>
+  <si>
     <t>NivelAbastecimientoBodega</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
     <t>PK,UA</t>
   </si>
   <si>
@@ -107,10 +117,10 @@
     <t>NN, CK (numero mayor o igual a cero)</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
+    <t>NN, CK (numero mayor a cero)</t>
+  </si>
+  <si>
+    <t>NN, CK ('Bodega' O 'Estante')</t>
   </si>
   <si>
     <t>TABLA PRODUCTO</t>
@@ -132,9 +142,6 @@
   </si>
   <si>
     <t>Categoria</t>
-  </si>
-  <si>
-    <t>Tipo</t>
   </si>
   <si>
     <t>IdProducto</t>
@@ -340,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -435,11 +442,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -450,7 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -465,11 +484,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,15 +809,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="Q8" sqref="Q8:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -801,7 +825,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
@@ -811,7 +835,7 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -827,26 +851,26 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -865,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.5" customHeight="1">
+    <row r="3" spans="1:23" ht="40.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -878,26 +902,26 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:23">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -907,114 +931,100 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="9"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="42.75" customHeight="1">
+      <c r="K9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="1:23" ht="42.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="16" t="s">
+      <c r="I10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="K10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1024,51 +1034,51 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="J15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:23">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="H16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1088,7 +1098,7 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1097,20 +1107,20 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>26</v>
+      <c r="L17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1151,90 +1161,90 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="13" t="s">
+      <c r="N22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="96" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="16" t="s">
+      <c r="K23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1249,7 +1259,7 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="16"/>
       <c r="J25" s="4" t="s">
         <v>70</v>
       </c>
@@ -1261,40 +1271,40 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="J26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="10" t="s">
         <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
@@ -1305,41 +1315,41 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="52.5" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1362,67 +1372,67 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="11" t="s">
         <v>90</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="48.75" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>13</v>
@@ -1433,7 +1443,7 @@
       <c r="L31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1451,7 +1461,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
